--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/Receipts.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/Receipts.xlsx
@@ -2,29 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCases Login&amp;Menu" r:id="rId2" sheetId="2"/>
-    <sheet name="TestCases Document1" r:id="rId3" sheetId="3"/>
-    <sheet name="TestCases Document2" r:id="rId4" sheetId="4"/>
-    <sheet name="TestCases Document3" r:id="rId5" sheetId="10"/>
-    <sheet name="TestCases Document4" r:id="rId6" sheetId="11"/>
-    <sheet name="TestCases Document5" r:id="rId7" sheetId="12"/>
-    <sheet name="TestCases Document6" r:id="rId8" sheetId="13"/>
-    <sheet name="TestCases Document7" r:id="rId9" sheetId="5"/>
-    <sheet name="TestCases Document8" r:id="rId10" sheetId="8"/>
-    <sheet name="TestCases VoucherClose" r:id="rId11" sheetId="7"/>
+    <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases Login&amp;Menu" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCases Document1" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCases Document2" sheetId="4" r:id="rId4"/>
+    <sheet name="TestCases Document3" sheetId="10" r:id="rId5"/>
+    <sheet name="TestCases Document4" sheetId="11" r:id="rId6"/>
+    <sheet name="TestCases Document5" sheetId="12" r:id="rId7"/>
+    <sheet name="TestCases Document6" sheetId="13" r:id="rId8"/>
+    <sheet name="TestCases Document7" sheetId="5" r:id="rId9"/>
+    <sheet name="TestCases Document8" sheetId="8" r:id="rId10"/>
+    <sheet name="TestCases VoucherClose" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="220">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -408,9 +408,6 @@
     <t>Verify if it is validating that the Body Grid's data is missing while saving the voucher</t>
   </si>
   <si>
-    <t>Field is Mandatory</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -543,10 +540,6 @@
     <t>CQ-12323323</t>
   </si>
   <si>
-    <t>Message
-Voucher saved successfully</t>
-  </si>
-  <si>
     <t>There should be atleast one row entered.</t>
   </si>
   <si>
@@ -712,35 +705,38 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>Error
-There should be atleast one row entered.</t>
-  </si>
-  <si>
-    <t>This Field is Mandatory
-Controls marked with arrow mark, require Values
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1-SalInv:1,15,1-SalInv:2,5,2-SalInv:2,0</t>
+  </si>
+  <si>
+    <t>Voucher saved successfully</t>
+  </si>
+  <si>
+    <t>Controls marked with arrow mark, require Values
 Main -&gt; CashBankAC</t>
   </si>
   <si>
-    <t>Adjusted amount is not equal to total amount</t>
-  </si>
-  <si>
-    <t>Blocked</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>1-SalInv:1,15,1-SalInv:2,5,2-SalInv:2,0</t>
-  </si>
-  <si>
-    <t/>
+    <t>BILLCALCULATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Reference 1 whose Bill Row No 2: Calculated NativeCurrency is 25.0 &amp; Actual NativeCurrency 25.00, For Reference 2 whose Bill Row No 2: Calculated NativeCurrency is 25.0 &amp; Actual NativeCurrency 25.00, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Reference 1 whose Bill Row No 2: Calculated Amount is 2676.46 &amp; Actual Amount 2676.46, For Reference 2 whose Bill Row No 2: Calculated Amount is 2676.46 &amp; Actual Amount 2676.46, </t>
+  </si>
+  <si>
+    <t>AUTO040119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -789,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="260">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,1107 +973,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -2125,230 +1021,121 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+  <cellXfs count="70">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="4" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="true" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="259" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FF273A99"/>
@@ -2368,10 +1155,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2529,7 +1316,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2538,13 +1325,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2554,7 +1341,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2563,7 +1350,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2572,7 +1359,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2582,12 +1369,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2618,7 +1405,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2637,7 +1424,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2649,19 +1436,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D14:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="15" width="91.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="91" style="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,7 +1476,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2703,7 +1490,7 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2711,13 +1498,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="144" t="s">
-        <v>217</v>
+      <c r="D4" s="45" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,51 +1512,51 @@
         <v>69</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="147" t="s">
-        <v>217</v>
+      <c r="D5" s="48" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>161</v>
+      <c r="B6" s="69" t="s">
+        <v>159</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,13 +1564,13 @@
         <v>73</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="151" t="s">
-        <v>217</v>
+      <c r="D9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,27 +1578,27 @@
         <v>74</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="155" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row ht="30" r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="159" t="s">
-        <v>217</v>
+      <c r="D11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,13 +1606,13 @@
         <v>76</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>217</v>
+      <c r="D12" s="53" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,69 +1620,69 @@
         <v>77</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="167" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row ht="30" r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="171" t="s">
-        <v>217</v>
+      <c r="D14" s="61" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="174" t="s">
-        <v>217</v>
+      <c r="D15" s="64" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="176" t="s">
-        <v>217</v>
+      <c r="D16" s="66" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s" s="178">
-        <v>217</v>
+      <c r="D17" s="68" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2903,29 +1690,29 @@
     <mergeCell ref="B6:B8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="Company Creation" location="'TestCases Login&amp;Menu'!A2" ref="B2"/>
-    <hyperlink display="Login &amp; Leftpanel Menu display" location="'TestCases Login&amp;Menu'!A3:A4" ref="B3"/>
-    <hyperlink display="Receipts Voucher Menu selection &amp; display of  its dashboard icons " location="'TestCases Login&amp;Menu'!A5:A6" ref="B4"/>
-    <hyperlink display="Receipts Voucher New click &amp; display of its dashboard icons" location="'TestCases Login&amp;Menu'!A7:A8" ref="B5"/>
-    <hyperlink display="Getting of all Header, Body &amp; Footer label names of Receipts Voucher" location="'TestCases Login&amp;Menu'!A9:A11" ref="B6:B8"/>
-    <hyperlink display="Receipts Voucher creation with valid data by providing Save Method as &quot;Pick&quot;" location="'TestCases Document1'!A2:A8" ref="B9"/>
-    <hyperlink display="Receipts Voucher creation with valid data by providing Save Method as &quot;New Reference&quot;" location="'TestCases Document2'!A2:A8" ref="B10"/>
-    <hyperlink display="Receipts Voucher creation with valid data by Adjusting single Reference against multiple Pending Bills" location="'TestCases Document3'!A2:A8" ref="B11"/>
-    <hyperlink display="Receipts Voucher creation with valid data by Adjusting multiple References against  Pending Bills " location="'TestCases Document4'!A2:A8" ref="B12"/>
-    <hyperlink display="Receipts Voucher creation with valid data by Adjusting Bills on FIFO order" location="'TestCases Document5'!A2:A8" ref="B13"/>
-    <hyperlink display="Receipts Voucher creation with valid data by partially Adjusting Bills against Pending Bills and against New References" location="'TestCases Document6'!A2:A8" ref="B14"/>
-    <hyperlink display="Receipts Voucher validation by missing mandatory fields of the Header" location="'TestCases Document7'!A2:A8" ref="B15"/>
-    <hyperlink display="Receipts Voucher validation by missing mandatory fields of the Body grid" location="'TestCases Document8'!A2:A8" ref="B16"/>
-    <hyperlink display="Receipts Voucher Home Page Close" location="'TestCases VoucherClose'!A2" ref="B17"/>
+    <hyperlink ref="B2" location="'TestCases Login&amp;Menu'!A2" display="Company Creation"/>
+    <hyperlink ref="B3" location="'TestCases Login&amp;Menu'!A3:A4" display="Login &amp; Leftpanel Menu display"/>
+    <hyperlink ref="B4" location="'TestCases Login&amp;Menu'!A5:A6" display="Receipts Voucher Menu selection &amp; display of  its dashboard icons "/>
+    <hyperlink ref="B5" location="'TestCases Login&amp;Menu'!A7:A8" display="Receipts Voucher New click &amp; display of its dashboard icons"/>
+    <hyperlink ref="B6:B8" location="'TestCases Login&amp;Menu'!A9:A11" display="Getting of all Header, Body &amp; Footer label names of Receipts Voucher"/>
+    <hyperlink ref="B9" location="'TestCases Document1'!A2:A8" display="Receipts Voucher creation with valid data by providing Save Method as &quot;Pick&quot;"/>
+    <hyperlink ref="B10" location="'TestCases Document2'!A2:A8" display="Receipts Voucher creation with valid data by providing Save Method as &quot;New Reference&quot;"/>
+    <hyperlink ref="B11" location="'TestCases Document3'!A2:A8" display="Receipts Voucher creation with valid data by Adjusting single Reference against multiple Pending Bills"/>
+    <hyperlink ref="B12" location="'TestCases Document4'!A2:A8" display="Receipts Voucher creation with valid data by Adjusting multiple References against  Pending Bills "/>
+    <hyperlink ref="B13" location="'TestCases Document5'!A2:A8" display="Receipts Voucher creation with valid data by Adjusting Bills on FIFO order"/>
+    <hyperlink ref="B14" location="'TestCases Document6'!A2:A8" display="Receipts Voucher creation with valid data by partially Adjusting Bills against Pending Bills and against New References"/>
+    <hyperlink ref="B15" location="'TestCases Document7'!A2:A8" display="Receipts Voucher validation by missing mandatory fields of the Header"/>
+    <hyperlink ref="B16" location="'TestCases Document8'!A2:A8" display="Receipts Voucher validation by missing mandatory fields of the Body grid"/>
+    <hyperlink ref="B17" location="'TestCases VoucherClose'!A2" display="Receipts Voucher Home Page Close"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2933,16 +1720,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2977,16 +1764,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="175" t="s">
-        <v>217</v>
+      <c r="D2" s="65" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -2996,10 +1783,10 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -3037,10 +1824,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>51</v>
@@ -3048,7 +1835,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="22"/>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
@@ -3085,10 +1872,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>61</v>
@@ -3123,12 +1910,12 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>109</v>
@@ -3162,19 +1949,19 @@
         <v>25</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -3186,7 +1973,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3270,25 +2057,25 @@
         <v>47</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>93</v>
@@ -3304,13 +2091,13 @@
       <c r="J16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3318,11 +2105,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="82.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3344,43 +2131,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="177" t="s">
-        <v>217</v>
+      <c r="D2" s="67" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="15" width="41.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="65.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="26.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.5703125" style="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.28515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3445,7 +2232,9 @@
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="41" t="s">
+        <v>212</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
@@ -3456,12 +2245,12 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row ht="30" r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -3471,7 +2260,9 @@
       <c r="C4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="42" t="s">
+        <v>212</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>55</v>
       </c>
@@ -3485,18 +2276,18 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row ht="30" r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="142" t="s">
-        <v>217</v>
+        <v>171</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>212</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>56</v>
@@ -3508,51 +2299,51 @@
         <v>57</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="143" t="s">
-        <v>217</v>
+        <v>199</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>212</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row ht="30" r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="145" t="s">
-        <v>217</v>
+        <v>174</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
@@ -3563,18 +2354,18 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="146" t="s">
-        <v>217</v>
+        <v>198</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>212</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>91</v>
@@ -3592,7 +2383,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>35</v>
@@ -3608,13 +2399,13 @@
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3622,7 +2413,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>36</v>
@@ -3632,16 +2423,16 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
         <v>121</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>122</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>123</v>
-      </c>
-      <c r="I10" t="s">
-        <v>124</v>
       </c>
       <c r="J10" t="s">
         <v>102</v>
@@ -3652,7 +2443,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>37</v>
@@ -3668,32 +2459,32 @@
       <c r="J11" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="15" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="22.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="16384" style="18" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3726,18 +2517,18 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="150" t="s">
-        <v>217</v>
+        <v>132</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -3750,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -3791,29 +2582,29 @@
         <v>84</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="148" t="s">
-        <v>217</v>
+      <c r="D4" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3847,28 +2638,28 @@
         <v>85</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="149" t="s">
-        <v>217</v>
+      <c r="D6" s="33" t="s">
+        <v>212</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -3894,12 +2685,12 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>109</v>
@@ -3912,7 +2703,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row customFormat="1" r="9" s="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
@@ -3933,19 +2724,19 @@
         <v>25</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>20</v>
@@ -3957,13 +2748,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4030,7 +2821,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row customFormat="1" r="15" s="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
@@ -4045,23 +2836,23 @@
         <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="J15" s="8"/>
     </row>
-    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>93</v>
@@ -4071,14 +2862,14 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -4089,41 +2880,41 @@
       <c r="D17" s="3"/>
       <c r="E17" s="7"/>
       <c r="F17" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="15" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="27" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="22.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" style="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4156,18 +2947,18 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="154" t="s">
-        <v>217</v>
+        <v>133</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -4180,7 +2971,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -4221,32 +3012,32 @@
         <v>87</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="152" t="s">
-        <v>217</v>
+      <c r="D4" s="35" t="s">
+        <v>212</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" s="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4272,37 +3063,37 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row customFormat="1" ht="30" r="6" s="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="153" t="s">
-        <v>217</v>
+      <c r="D6" s="36" t="s">
+        <v>212</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" t="s">
         <v>136</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>136</v>
       </c>
-      <c r="H6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" t="s">
-        <v>137</v>
-      </c>
       <c r="J6" s="3"/>
     </row>
-    <row customFormat="1" r="7" s="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -4324,12 +3115,12 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row customFormat="1" ht="30" r="8" s="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>109</v>
@@ -4363,19 +3154,19 @@
         <v>25</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -4387,7 +3178,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4471,23 +3262,23 @@
         <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="J15" s="8"/>
     </row>
-    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>93</v>
@@ -4497,10 +3288,10 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -4513,24 +3304,24 @@
       <c r="D17" s="3"/>
       <c r="E17" s="7"/>
       <c r="F17" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4538,16 +3329,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4580,33 +3371,33 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="158" t="s">
-        <v>217</v>
+        <v>140</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -4647,29 +3438,29 @@
         <v>90</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="156" t="s">
-        <v>217</v>
+      <c r="D4" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4698,27 +3489,27 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="157" t="s">
-        <v>217</v>
+      <c r="D6" s="39" t="s">
+        <v>212</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4746,12 +3537,12 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>109</v>
@@ -4785,19 +3576,19 @@
         <v>25</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -4809,7 +3600,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4893,23 +3684,23 @@
         <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="J15" s="8"/>
     </row>
-    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>93</v>
@@ -4919,40 +3710,40 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4985,33 +3776,33 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="162" t="s">
-        <v>217</v>
+        <v>139</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -5052,29 +3843,29 @@
         <v>96</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="160" t="s">
-        <v>217</v>
+      <c r="D4" s="49" t="s">
+        <v>212</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5103,33 +3894,33 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="161" t="s">
-        <v>217</v>
+      <c r="D6" s="50" t="s">
+        <v>212</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -5155,20 +3946,28 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" t="s">
+        <v>217</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -5194,19 +3993,19 @@
         <v>25</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -5218,7 +4017,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5302,23 +4101,23 @@
         <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="J15" s="8"/>
     </row>
-    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>93</v>
@@ -5328,10 +4127,10 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -5344,7 +4143,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>34</v>
@@ -5354,13 +4153,13 @@
       <c r="J17" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -5368,16 +4167,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5410,31 +4209,31 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="166" t="s">
-        <v>217</v>
+        <v>141</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -5472,32 +4271,32 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="164" t="s">
-        <v>217</v>
+      <c r="D4" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5526,33 +4325,33 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="165" t="s">
-        <v>217</v>
+      <c r="D6" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -5578,12 +4377,12 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>109</v>
@@ -5617,19 +4416,19 @@
         <v>25</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -5641,7 +4440,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5725,23 +4524,23 @@
         <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="J15" s="8"/>
     </row>
-    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>93</v>
@@ -5751,10 +4550,10 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -5767,7 +4566,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>107</v>
@@ -5777,14 +4576,14 @@
       <c r="J17" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -5792,16 +4591,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -5834,33 +4633,33 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row ht="30" r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="170" t="s">
-        <v>217</v>
+        <v>141</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -5898,32 +4697,32 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="168" t="s">
-        <v>217</v>
+      <c r="D4" s="58" t="s">
+        <v>212</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5952,39 +4751,39 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row ht="30" r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="169" t="s">
-        <v>217</v>
+      <c r="D6" s="59" t="s">
+        <v>212</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" t="s">
         <v>206</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>206</v>
       </c>
-      <c r="H6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I6" t="s">
-        <v>208</v>
-      </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6009,12 +4808,12 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row ht="30" r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>109</v>
@@ -6048,19 +4847,19 @@
         <v>25</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -6072,7 +4871,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6156,23 +4955,23 @@
         <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="J15" s="8"/>
     </row>
-    <row ht="30" r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>93</v>
@@ -6182,7 +4981,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>107</v>
@@ -6198,10 +4997,10 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -6214,40 +5013,40 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="78.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6280,18 +5079,18 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="173" t="s">
-        <v>217</v>
+      <c r="D2" s="63" t="s">
+        <v>212</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -6300,15 +5099,15 @@
         <v>31</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="12" t="s">
-        <v>112</v>
+      <c r="H2" t="s">
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row customFormat="1" r="3" s="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -6340,34 +5139,34 @@
         <v>45</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="172" t="s">
-        <v>217</v>
+      <c r="D4" s="62" t="s">
+        <v>212</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6396,12 +5195,12 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row ht="30" r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>61</v>
@@ -6434,12 +5233,12 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row ht="30" r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>109</v>
@@ -6473,19 +5272,19 @@
         <v>25</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -6501,7 +5300,7 @@
         <v>107</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6583,23 +5382,23 @@
         <v>47</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>124</v>
-      </c>
       <c r="J15" s="20"/>
     </row>
-    <row ht="30" r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>93</v>
@@ -6609,7 +5408,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>107</v>
@@ -6619,6 +5418,6 @@
       <c r="J16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>